--- a/biology/Médecine/Génioplastie/Génioplastie.xlsx
+++ b/biology/Médecine/Génioplastie/Génioplastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9nioplastie</t>
+          <t>Génioplastie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La génioplastie, également appelée mentoplastie, se rapporte à la chirurgie fonctionnelle ou esthétique du menton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9nioplastie</t>
+          <t>Génioplastie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone du menton correspond à la partie médiane de la mandibule. C'est l'une des formes qui donne au visage, au même titre que le nez ou les pommettes, son expression et son caractère. La correction d'un menton disgracieux ou non adapté rétablit l'équilibre du profil, l'harmonie du visage.
 Idéalement, de profil, une ligne verticale tirée depuis la partie la plus saillante du front doit tomber environ à l'aplomb du menton.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9nioplastie</t>
+          <t>Génioplastie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est favorable d'effectuer l'ostéotomie du menton à l'adolescence pour une meilleure consolidation osseuse. Cependant, l'opération peut s'effectuer à l'âge adulte.
 En France, en tant qu'opération fonctionnelle, elle est remboursée par la Sécurité sociale et la mutuelle. Dans le cas de chirurgie esthétique, aucun remboursement n'est possible.
